--- a/Assets/StreamingAssets/character_configs.xlsx
+++ b/Assets/StreamingAssets/character_configs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +85,93 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖刀姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打火机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莹草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蛇boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源博雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八百</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalAttackSkillId</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -489,10 +572,12 @@
     <col min="5" max="6" width="14.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,10 +603,19 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -529,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -538,19 +632,25 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -558,28 +658,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>3300</v>
+        <v>3082</v>
       </c>
       <c r="D3" s="1">
-        <v>8000</v>
+        <v>10823</v>
       </c>
       <c r="E3" s="1">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="F3" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+        <v>150</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K3" s="1">
         <v>100101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -587,54 +690,563 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>2800</v>
+        <v>2894</v>
       </c>
       <c r="D4" s="1">
-        <v>8000</v>
+        <v>10709</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
+        <v>432</v>
       </c>
       <c r="F4" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+        <v>150</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K4" s="1">
         <v>100201</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>3400</v>
+        <v>3216</v>
       </c>
       <c r="D5" s="1">
-        <v>8000</v>
+        <v>10253</v>
       </c>
       <c r="E5" s="1">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="F5" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
       </c>
       <c r="H5" s="1">
+        <v>150</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2894</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10709</v>
+      </c>
+      <c r="E6" s="1">
+        <v>432</v>
+      </c>
+      <c r="F6" s="1">
+        <v>118</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>150</v>
+      </c>
+      <c r="J6" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3350</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12532</v>
+      </c>
+      <c r="E7" s="1">
+        <v>352</v>
+      </c>
+      <c r="F7" s="1">
+        <v>110</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>160</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3296</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10025</v>
+      </c>
+      <c r="E8" s="1">
+        <v>396</v>
+      </c>
+      <c r="F8" s="1">
+        <v>111</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>150</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2331</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12418</v>
+      </c>
+      <c r="E9" s="1">
+        <v>458</v>
+      </c>
+      <c r="F9" s="1">
+        <v>102</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100710</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2626</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11506</v>
+      </c>
+      <c r="E10" s="1">
+        <v>445</v>
+      </c>
+      <c r="F10" s="1">
+        <v>116</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>150</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2559</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11620</v>
+      </c>
+      <c r="E11" s="1">
+        <v>445</v>
+      </c>
+      <c r="F11" s="1">
+        <v>108</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>150</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2680</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11393</v>
+      </c>
+      <c r="E12" s="1">
+        <v>441</v>
+      </c>
+      <c r="F12" s="1">
+        <v>103</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>150</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2304</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12304</v>
+      </c>
+      <c r="E13" s="1">
+        <v>467</v>
+      </c>
+      <c r="F13" s="1">
+        <v>117</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>150</v>
+      </c>
+      <c r="J13" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2438</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11620</v>
+      </c>
+      <c r="E14" s="1">
+        <v>471</v>
+      </c>
+      <c r="F14" s="1">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>150</v>
+      </c>
+      <c r="J14" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3135</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11165</v>
+      </c>
+      <c r="E15" s="1">
+        <v>374</v>
+      </c>
+      <c r="F15" s="1">
+        <v>113</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>150</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3135</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10025</v>
+      </c>
+      <c r="E16" s="1">
+        <v>418</v>
+      </c>
+      <c r="F16" s="1">
+        <v>110</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>150</v>
+      </c>
+      <c r="J16" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3256</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13847</v>
+      </c>
+      <c r="E17" s="1">
+        <v>536</v>
+      </c>
+      <c r="F17" s="1">
+        <v>128</v>
+      </c>
+      <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>100301</v>
+      <c r="H17" s="1">
+        <v>150</v>
+      </c>
+      <c r="J17" s="1">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3256</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13847</v>
+      </c>
+      <c r="E18" s="1">
+        <v>536</v>
+      </c>
+      <c r="F18" s="1">
+        <v>128</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>150</v>
+      </c>
+      <c r="J18" s="1">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3256</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13847</v>
+      </c>
+      <c r="E19" s="1">
+        <v>536</v>
+      </c>
+      <c r="F19" s="1">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>150</v>
+      </c>
+      <c r="J19" s="1">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3256</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13847</v>
+      </c>
+      <c r="E20" s="1">
+        <v>536</v>
+      </c>
+      <c r="F20" s="1">
+        <v>128</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>150</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>2999</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>150</v>
+      </c>
+      <c r="J21" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K21" s="1">
+        <v>299901</v>
       </c>
     </row>
   </sheetData>
